--- a/documents/Project Code Summary.xlsx
+++ b/documents/Project Code Summary.xlsx
@@ -334,7 +334,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,6 +344,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,19 +367,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>217170</xdr:colOff>
+      <xdr:colOff>714374</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>79001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -398,8 +398,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="12411075"/>
-          <a:ext cx="4598670" cy="2705100"/>
+          <a:off x="190499" y="12077700"/>
+          <a:ext cx="5267325" cy="3098426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,12 +713,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -730,735 +733,735 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="3"/>
+      <c r="B44" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="3"/>
+      <c r="B45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2">
         <v>43</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <f>SUM(D36:D45)</f>
         <v>1415</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <f>COUNT(B47:B52)</f>
         <v>0</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>6</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <f>SUM(D47:D52)</f>
         <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3" t="s">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3" t="s">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3" t="s">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <f>COUNT(B54:B60)</f>
         <v>0</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>7</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <f>SUM(D54:D60)</f>
         <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2">
         <f>SUM(D36:D61)/2</f>
         <v>2005</v>
       </c>
